--- a/tests/test_data/spreadsheets/bad-guess.xlsx
+++ b/tests/test_data/spreadsheets/bad-guess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/programming/git-clones/dataprob/tests/test_data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5439B1-318A-2A40-A503-3C925923E99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054BCD7-B076-214B-BE77-77E673CCD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{AE00FBF8-3830-3845-857E-C46D5BABC3ED}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>param</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>stupid</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -422,25 +422,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
